--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\NanoNLP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1624F7D0-B7C3-491B-8442-AE5109221879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2774F1E9-C270-4971-910C-CB7F2287D9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{77452D7F-17A7-4317-91DA-161E5CA901E1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{77452D7F-17A7-4317-91DA-161E5CA901E1}"/>
   </bookViews>
   <sheets>
     <sheet name="분석 결과 요약" sheetId="1" r:id="rId1"/>
@@ -395,9 +395,6 @@
     <t>한자</t>
   </si>
   <si>
-    <t>ON</t>
-  </si>
-  <si>
     <t>숫자</t>
   </si>
   <si>
@@ -766,6 +763,10 @@
   </si>
   <si>
     <t>=절 수/문장 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1994,11 +1995,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D1CD0F-3282-4362-9A92-741ACBEDB15E}">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="12.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.19921875" style="1" customWidth="1"/>
@@ -2020,7 +2021,7 @@
     <col min="29" max="29" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2031,7 @@
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A2" s="48"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2038,20 +2039,20 @@
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A3" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:29" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A4" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2061,21 +2062,21 @@
       <c r="H4" s="4"/>
       <c r="I4" s="9"/>
       <c r="J4" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K4" s="82"/>
       <c r="L4" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M4" s="9"/>
       <c r="T4" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V4" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X4" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y4" s="69" t="s">
         <v>78</v>
@@ -2093,16 +2094,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5"/>
       <c r="E5" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -2121,7 +2122,7 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>2</v>
@@ -2130,26 +2131,26 @@
         <v>17</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R5" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U5" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V5" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="W5" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="W5" s="72" t="s">
-        <v>143</v>
-      </c>
       <c r="X5" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y5" s="76" t="s">
         <v>77</v>
@@ -2167,9 +2168,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6"/>
@@ -2182,7 +2183,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="7"/>
       <c r="N6" s="85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>8</v>
@@ -2204,9 +2205,9 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="80"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7"/>
@@ -2225,14 +2226,14 @@
       <c r="R7" s="54"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8"/>
       <c r="E8" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="50"/>
@@ -2248,14 +2249,14 @@
       <c r="R8" s="54"/>
       <c r="S8" s="27"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9"/>
       <c r="E9" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="50"/>
@@ -2270,14 +2271,14 @@
       <c r="Q9" s="53"/>
       <c r="R9" s="54"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10"/>
       <c r="E10" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="50"/>
@@ -2293,14 +2294,14 @@
       <c r="R10" s="54"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11"/>
       <c r="E11" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" s="27"/>
       <c r="M11" s="7"/>
@@ -2315,19 +2316,19 @@
       <c r="R11" s="56"/>
       <c r="S11" s="27"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12"/>
       <c r="E12" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="27"/>
       <c r="M12" s="7"/>
       <c r="N12" s="83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>10</v>
@@ -2339,14 +2340,14 @@
       <c r="R12" s="58"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13"/>
       <c r="E13" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="27"/>
       <c r="M13" s="7"/>
@@ -2361,7 +2362,7 @@
       <c r="R13" s="54"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B14" s="8"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2379,7 +2380,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="27"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.7">
       <c r="B15" s="8"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2397,12 +2398,12 @@
       <c r="R15" s="54"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.7">
       <c r="A16" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -2414,22 +2415,22 @@
         <v>34</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="53"/>
       <c r="R16" s="54"/>
       <c r="S16" s="27"/>
     </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17" s="27"/>
       <c r="M17" s="7"/>
@@ -2438,25 +2439,25 @@
         <v>35</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="59"/>
       <c r="R17" s="60"/>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18"/>
       <c r="E18" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18" s="27"/>
       <c r="M18" s="7"/>
       <c r="N18" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>36</v>
@@ -2468,14 +2469,14 @@
       <c r="R18" s="52"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19"/>
       <c r="E19" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="27"/>
       <c r="M19" s="7"/>
@@ -2490,9 +2491,9 @@
       <c r="R19" s="56"/>
       <c r="S19" s="27"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20"/>
@@ -2500,7 +2501,7 @@
       <c r="F20" s="27"/>
       <c r="M20" s="7"/>
       <c r="N20" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>13</v>
@@ -2512,15 +2513,15 @@
       <c r="R20" s="58"/>
       <c r="S20" s="27"/>
     </row>
-    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21"/>
       <c r="E21" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" s="27"/>
       <c r="M21" s="7"/>
@@ -2535,7 +2536,7 @@
       <c r="R21" s="60"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -2554,7 +2555,7 @@
       <c r="R22" s="63"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A23" s="39"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -2562,7 +2563,7 @@
       <c r="F23" s="27"/>
       <c r="M23" s="7"/>
       <c r="N23" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>15</v>
@@ -2574,12 +2575,12 @@
       <c r="R23" s="58"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A24" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2597,16 +2598,16 @@
       <c r="R24" s="54"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B25" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="27"/>
       <c r="M25" s="7"/>
@@ -2621,15 +2622,15 @@
       <c r="R25" s="54"/>
       <c r="S25" s="27"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26"/>
       <c r="E26" s="67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F26" s="27"/>
       <c r="M26" s="7"/>
@@ -2644,14 +2645,14 @@
       <c r="R26" s="54"/>
       <c r="S26" s="27"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27"/>
       <c r="E27" s="67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F27"/>
       <c r="M27" s="7"/>
@@ -2665,14 +2666,14 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="54"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28"/>
       <c r="E28" s="67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F28"/>
       <c r="M28" s="7"/>
@@ -2686,14 +2687,14 @@
       <c r="Q28" s="53"/>
       <c r="R28" s="54"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29"/>
       <c r="E29" s="67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29"/>
       <c r="M29" s="7"/>
@@ -2707,7 +2708,7 @@
       <c r="Q29" s="53"/>
       <c r="R29" s="54"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.7">
       <c r="B30" s="8"/>
       <c r="C30" s="66"/>
       <c r="D30"/>
@@ -2724,7 +2725,7 @@
       <c r="Q30" s="53"/>
       <c r="R30" s="54"/>
     </row>
-    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -2740,12 +2741,12 @@
       <c r="Q31" s="59"/>
       <c r="R31" s="60"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.7">
       <c r="A32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>164</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>165</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -2753,7 +2754,7 @@
       <c r="F32"/>
       <c r="M32" s="7"/>
       <c r="N32" s="85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O32" s="22" t="s">
         <v>59</v>
@@ -2764,16 +2765,16 @@
       <c r="Q32" s="51"/>
       <c r="R32" s="52"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33"/>
       <c r="M33" s="7"/>
@@ -2787,9 +2788,9 @@
       <c r="Q33" s="53"/>
       <c r="R33" s="54"/>
     </row>
-    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B34" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34"/>
@@ -2806,9 +2807,9 @@
       <c r="Q34" s="55"/>
       <c r="R34" s="56"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B35" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35"/>
@@ -2816,7 +2817,7 @@
       <c r="F35"/>
       <c r="M35" s="7"/>
       <c r="N35" s="83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O35" s="12" t="s">
         <v>65</v>
@@ -2827,9 +2828,9 @@
       <c r="Q35" s="57"/>
       <c r="R35" s="58"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B36" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36"/>
@@ -2846,9 +2847,9 @@
       <c r="Q36" s="53"/>
       <c r="R36" s="54"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B37" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37"/>
@@ -2867,14 +2868,14 @@
       <c r="Q37" s="53"/>
       <c r="R37" s="54"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B38" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38"/>
       <c r="E38" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38"/>
       <c r="M38" s="7"/>
@@ -2888,9 +2889,9 @@
       <c r="Q38" s="53"/>
       <c r="R38" s="54"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39"/>
@@ -2909,9 +2910,9 @@
       <c r="Q39" s="53"/>
       <c r="R39" s="54"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40"/>
@@ -2928,9 +2929,9 @@
       <c r="Q40" s="53"/>
       <c r="R40" s="54"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -2947,14 +2948,14 @@
       <c r="Q41" s="57"/>
       <c r="R41" s="58"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B42" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42"/>
       <c r="E42" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42"/>
       <c r="M42" s="7"/>
@@ -2968,14 +2969,14 @@
       <c r="Q42" s="53"/>
       <c r="R42" s="54"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B43" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43"/>
       <c r="E43" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43"/>
       <c r="M43" s="7"/>
@@ -2989,14 +2990,14 @@
       <c r="Q43" s="53"/>
       <c r="R43" s="54"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B44" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44"/>
       <c r="E44" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44"/>
       <c r="M44" s="7"/>
@@ -3010,14 +3011,14 @@
       <c r="Q44" s="53"/>
       <c r="R44" s="54"/>
     </row>
-    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B45" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45"/>
       <c r="E45" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F45"/>
       <c r="M45" s="7"/>
@@ -3031,14 +3032,14 @@
       <c r="Q45" s="59"/>
       <c r="R45" s="60"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.7">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="M46" s="7"/>
       <c r="N46" s="85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O46" s="22" t="s">
         <v>87</v>
@@ -3049,7 +3050,7 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="52"/>
     </row>
-    <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -3065,12 +3066,12 @@
       <c r="Q47" s="55"/>
       <c r="R47" s="56"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -3078,7 +3079,7 @@
       <c r="F48"/>
       <c r="M48" s="7"/>
       <c r="N48" s="83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O48" s="12" t="s">
         <v>91</v>
@@ -3089,16 +3090,16 @@
       <c r="Q48" s="57"/>
       <c r="R48" s="58"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B49" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49"/>
       <c r="M49" s="7"/>
@@ -3112,9 +3113,9 @@
       <c r="Q49" s="53"/>
       <c r="R49" s="54"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B50" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" s="35"/>
       <c r="D50"/>
@@ -3131,9 +3132,9 @@
       <c r="Q50" s="53"/>
       <c r="R50" s="54"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B51" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51"/>
@@ -3150,9 +3151,9 @@
       <c r="Q51" s="53"/>
       <c r="R51" s="54"/>
     </row>
-    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B52" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52"/>
@@ -3169,9 +3170,9 @@
       <c r="Q52" s="59"/>
       <c r="R52" s="60"/>
     </row>
-    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B53" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53"/>
@@ -3192,31 +3193,31 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="63"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B54" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54"/>
       <c r="E54" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F54"/>
       <c r="N54" s="83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O54" s="12" t="s">
         <v>12</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q54" s="57"/>
       <c r="R54" s="58"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B55" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55"/>
@@ -3229,14 +3230,14 @@
         <v>103</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q55" s="53"/>
       <c r="R55" s="54"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="35"/>
       <c r="D56"/>
@@ -3246,14 +3247,14 @@
         <v>14</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q56" s="53"/>
       <c r="R56" s="54"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B57" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
@@ -3268,55 +3269,55 @@
       <c r="Q57" s="53"/>
       <c r="R57" s="54"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58"/>
       <c r="E58" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N58" s="83"/>
       <c r="O58" s="12" t="s">
         <v>106</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q58" s="53"/>
       <c r="R58" s="54"/>
     </row>
-    <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59"/>
       <c r="E59" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N59" s="83"/>
       <c r="O59" s="12" t="s">
         <v>107</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q59" s="59"/>
       <c r="R59" s="60"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60"/>
       <c r="E60" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N60" s="85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O60" s="22" t="s">
         <v>108</v>
@@ -3327,14 +3328,14 @@
       <c r="Q60" s="51"/>
       <c r="R60" s="52"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61"/>
       <c r="E61" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N61" s="83"/>
       <c r="O61" s="12" t="s">
@@ -3346,7 +3347,7 @@
       <c r="Q61" s="53"/>
       <c r="R61" s="54"/>
     </row>
-    <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="N62" s="84"/>
       <c r="O62" s="20" t="s">
         <v>112</v>
@@ -3357,9 +3358,9 @@
       <c r="Q62" s="55"/>
       <c r="R62" s="56"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.7">
       <c r="N63" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O63" s="12" t="s">
         <v>114</v>
@@ -3370,12 +3371,12 @@
       <c r="Q63" s="57"/>
       <c r="R63" s="58"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A64" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -3390,61 +3391,61 @@
       <c r="Q64" s="53"/>
       <c r="R64" s="54"/>
     </row>
-    <row r="65" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B65" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65"/>
       <c r="E65" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N65" s="84"/>
       <c r="O65" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="P65" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="P65" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="Q65" s="55"/>
       <c r="R65" s="56"/>
     </row>
-    <row r="66" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B66" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66"/>
       <c r="E66" s="40"/>
       <c r="N66" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O66" s="29"/>
       <c r="P66" s="30"/>
       <c r="Q66" s="65"/>
       <c r="R66" s="63"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B67" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67"/>
       <c r="E67" s="40"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B68" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68"/>
       <c r="E68" s="40"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B69" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69"/>
@@ -3452,19 +3453,19 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B70" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70"/>
       <c r="E70" s="40" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B71" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71"/>
@@ -3472,106 +3473,106 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72"/>
       <c r="E72" s="43"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B73" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="44"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B74" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C74" s="35"/>
       <c r="D74"/>
       <c r="E74" s="45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B75" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75"/>
       <c r="E75" s="45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B76" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" s="35"/>
       <c r="D76"/>
       <c r="E76" s="40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.7">
       <c r="B77" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77"/>
       <c r="E77" s="40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A80" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="81" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B81" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B82" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C82" s="2"/>
       <c r="E82" s="40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B83" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C83" s="2"/>
       <c r="E83" s="40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B84" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" s="2"/>
       <c r="E84" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
